--- a/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1254,7 +1254,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2295102977312711</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2708601855569361</v>
+        <v>0.270860185556936</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09547438276279717</v>
+        <v>0.09532651939214923</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1837173836332696</v>
+        <v>0.1839862905149076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1804820039180957</v>
+        <v>0.1785438112210114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1903401306510838</v>
+        <v>0.1925058885640336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1364717498551983</v>
+        <v>0.1351894041649442</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2216552912780679</v>
+        <v>0.2221408921674844</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.218825898111252</v>
+        <v>0.218291791206237</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2819631875104408</v>
+        <v>0.280761405335883</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1228433373675888</v>
+        <v>0.1223385120019322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2138916481322051</v>
+        <v>0.2127011480776425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2086537756689532</v>
+        <v>0.2092715492437515</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2509167075186488</v>
+        <v>0.2507537747920021</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1327639000946106</v>
+        <v>0.133247286237066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2382108439733743</v>
+        <v>0.2391711834638579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2372226066243164</v>
+        <v>0.2349434380984637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2516971833104173</v>
+        <v>0.2522163177625737</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1755773895921719</v>
+        <v>0.1734574045351112</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2693979640680456</v>
+        <v>0.2675598243022289</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2743530501936555</v>
+        <v>0.2767131152324566</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3302124216987569</v>
+        <v>0.328710977798775</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1511973892646346</v>
+        <v>0.1513555812173332</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2494783908717116</v>
+        <v>0.2472575632378805</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2497217270445214</v>
+        <v>0.248706202754864</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2901258483574612</v>
+        <v>0.2895700123635087</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02435707655844806</v>
+        <v>0.02423411186840456</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04758796663239574</v>
+        <v>0.04806666773697606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05429158403504796</v>
+        <v>0.05404240631073174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0921706780898404</v>
+        <v>0.09057810904429867</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02509591493519982</v>
+        <v>0.02532121370926362</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04192666725072323</v>
+        <v>0.04178794588175438</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05420323616274376</v>
+        <v>0.05263962441493199</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08264826079667323</v>
+        <v>0.08264725059385017</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02680186398958936</v>
+        <v>0.02692738413769698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04835882358027228</v>
+        <v>0.04874226215056705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0571110078394961</v>
+        <v>0.05638214555870973</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08999436577121424</v>
+        <v>0.09050971253306749</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04179419135170886</v>
+        <v>0.0413191317162072</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07144985782118085</v>
+        <v>0.0705047481179288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07636939226469157</v>
+        <v>0.07637152182426261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1181743818133998</v>
+        <v>0.1165272105698588</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04337696470180505</v>
+        <v>0.0426153354616384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06634998839498343</v>
+        <v>0.06529575798423415</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0772964258937251</v>
+        <v>0.07653788686804196</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1014143560574137</v>
+        <v>0.1015930170531963</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03899765568090863</v>
+        <v>0.03960690193900749</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06387576151835013</v>
+        <v>0.06457691318506403</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0728957099854363</v>
+        <v>0.07313072439774815</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1051915238401092</v>
+        <v>0.1053533549407273</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03003202814517435</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09226372745037031</v>
+        <v>0.09226372745037033</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03076646914307118</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02261028723329069</v>
+        <v>0.02441434297835919</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04364209363137733</v>
+        <v>0.0438310927305679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03172903915755017</v>
+        <v>0.03060108257369513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07274775379007241</v>
+        <v>0.07188174885396281</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01238886049905749</v>
+        <v>0.01244091592332746</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01996382454777377</v>
+        <v>0.02145617254094868</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01676338065017303</v>
+        <v>0.01701062507025926</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07679434130923365</v>
+        <v>0.07598197271029489</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02177330968377071</v>
+        <v>0.02161435495794517</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03773066195223868</v>
+        <v>0.0383220344207204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02862590736802924</v>
+        <v>0.02821655555485205</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07896049572644737</v>
+        <v>0.07954704720553236</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05708971436453232</v>
+        <v>0.0587978104051002</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09676259923425443</v>
+        <v>0.09878169089122467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07106021673752681</v>
+        <v>0.07217034822697323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1121658330418715</v>
+        <v>0.111045272523663</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04198517440787714</v>
+        <v>0.04120705231453487</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06034527316031526</v>
+        <v>0.0575536444531318</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05103249611425845</v>
+        <v>0.05090384317964931</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1103613231997561</v>
+        <v>0.1112952640007478</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04391204709502205</v>
+        <v>0.04360264754148361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07161619379905508</v>
+        <v>0.07119916413508164</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05430545786036269</v>
+        <v>0.05543088505416707</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1046207598966243</v>
+        <v>0.1065222687487396</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09261520399775694</v>
+        <v>0.09259727884179551</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0839515098664307</v>
+        <v>0.08404289723531638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1101997476314564</v>
+        <v>0.1099512578655181</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1118030058842276</v>
+        <v>0.1113241828127548</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0993687895156274</v>
+        <v>0.09988310768073637</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1296742874168542</v>
+        <v>0.1306276702825075</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1051434476495517</v>
+        <v>0.1057141230364589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09447525762137163</v>
+        <v>0.09482078335147102</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1232234794406328</v>
+        <v>0.1230743339122833</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1150065173997429</v>
+        <v>0.1142184260960082</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1048526516999911</v>
+        <v>0.1038181213543639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1300020173314311</v>
+        <v>0.1304829050047901</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1338927491445143</v>
+        <v>0.1348581966259681</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1220008113436073</v>
+        <v>0.1222738151960533</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1478673362781264</v>
+        <v>0.1478398833789381</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1218342319503064</v>
+        <v>0.1212083125498798</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1094258832163804</v>
+        <v>0.109301358154007</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1364562637159295</v>
+        <v>0.1369635873771755</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>98503</v>
+        <v>98351</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>179059</v>
+        <v>179321</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>136146</v>
+        <v>134684</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>109929</v>
+        <v>111180</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>179476</v>
+        <v>177789</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>295355</v>
+        <v>296002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>217657</v>
+        <v>217126</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>231243</v>
+        <v>230257</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>288293</v>
+        <v>287108</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>493478</v>
+        <v>490732</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>364937</v>
+        <v>366017</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>350696</v>
+        <v>350468</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>136976</v>
+        <v>137474</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>232171</v>
+        <v>233107</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>178948</v>
+        <v>177229</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>145366</v>
+        <v>145666</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>230904</v>
+        <v>228116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>358972</v>
+        <v>356523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>272888</v>
+        <v>275235</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>270812</v>
+        <v>269581</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>354835</v>
+        <v>355207</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>575582</v>
+        <v>570458</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>436765</v>
+        <v>434989</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>405497</v>
+        <v>404720</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41222</v>
+        <v>41014</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>93235</v>
+        <v>94173</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>112730</v>
+        <v>112213</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>205593</v>
+        <v>202040</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39844</v>
+        <v>40202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>73449</v>
+        <v>73206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>107772</v>
+        <v>104663</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>179405</v>
+        <v>179403</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>87912</v>
+        <v>88324</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>179462</v>
+        <v>180885</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>232138</v>
+        <v>229176</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>396090</v>
+        <v>398358</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70732</v>
+        <v>69928</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>139985</v>
+        <v>138134</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>158572</v>
+        <v>158577</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>263596</v>
+        <v>259922</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68868</v>
+        <v>67659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>116235</v>
+        <v>114388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>153688</v>
+        <v>152180</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>220141</v>
+        <v>220529</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>127915</v>
+        <v>129913</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>237047</v>
+        <v>239649</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>296298</v>
+        <v>297253</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>462977</v>
+        <v>463689</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12467</v>
+        <v>13462</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20963</v>
+        <v>21053</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17352</v>
+        <v>16735</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51766</v>
+        <v>51150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5902</v>
+        <v>5927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9137</v>
+        <v>9820</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9205</v>
+        <v>9341</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>56434</v>
+        <v>55837</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22379</v>
+        <v>22216</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>35391</v>
+        <v>35946</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31375</v>
+        <v>30926</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>114214</v>
+        <v>115062</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31480</v>
+        <v>32422</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46478</v>
+        <v>47448</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38862</v>
+        <v>39469</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79816</v>
+        <v>79018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20002</v>
+        <v>19632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27617</v>
+        <v>26340</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28024</v>
+        <v>27953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81102</v>
+        <v>81788</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>45134</v>
+        <v>44816</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67175</v>
+        <v>66784</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>59520</v>
+        <v>60754</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>151330</v>
+        <v>154081</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>316205</v>
+        <v>316144</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>283556</v>
+        <v>283865</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>387870</v>
+        <v>386995</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>396006</v>
+        <v>394310</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>350981</v>
+        <v>352797</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>483128</v>
+        <v>486680</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>731397</v>
+        <v>735367</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>652797</v>
+        <v>655185</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>892803</v>
+        <v>891722</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>392653</v>
+        <v>389963</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>354152</v>
+        <v>350658</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>457567</v>
+        <v>459260</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>474248</v>
+        <v>477668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>430919</v>
+        <v>431883</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>550909</v>
+        <v>550807</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>847501</v>
+        <v>843147</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>756102</v>
+        <v>755242</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>988680</v>
+        <v>992355</v>
       </c>
     </row>
     <row r="20">
